--- a/Python MP/Baseline/MP_Units.xlsx
+++ b/Python MP/Baseline/MP_Units.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
   <si>
     <t>CampaignTypeDuration</t>
   </si>
@@ -262,6 +262,9 @@
     <t>DJIBOUTI</t>
   </si>
   <si>
+    <t>EGYPT</t>
+  </si>
+  <si>
     <t>ETHIOPIA</t>
   </si>
   <si>
@@ -319,6 +322,9 @@
     <t>MAURITANIA</t>
   </si>
   <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
     <t>MOROCCO</t>
   </si>
   <si>
@@ -343,12 +349,18 @@
     <t>PAKISTAN</t>
   </si>
   <si>
+    <t>ROMANIA</t>
+  </si>
+  <si>
     <t>RUSSIA</t>
   </si>
   <si>
     <t>S.TOME,PRINCIPE</t>
   </si>
   <si>
+    <t>SAUDI ARABIA</t>
+  </si>
+  <si>
     <t>SENEGAL</t>
   </si>
   <si>
@@ -368,6 +380,9 @@
   </si>
   <si>
     <t>TOGO</t>
+  </si>
+  <si>
+    <t>TUNISIA</t>
   </si>
   <si>
     <t>TURKEY</t>
@@ -941,7 +956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI139"/>
+  <dimension ref="A1:AI144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
@@ -7733,14 +7748,14 @@
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D72" t="s">
         <v>37</v>
       </c>
       <c r="E72" t="s"/>
       <c r="F72" t="n">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="G72" s="3" t="n">
         <v>2958465</v>
@@ -7749,7 +7764,7 @@
       <c r="I72" t="s"/>
       <c r="J72" t="s"/>
       <c r="K72" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L72" t="s">
         <v>65</v>
@@ -7795,7 +7810,7 @@
       </c>
       <c r="Z72" t="s"/>
       <c r="AA72" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AB72" s="3" t="n">
         <v>1</v>
@@ -7804,19 +7819,17 @@
         <v>41</v>
       </c>
       <c r="AD72" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE72" t="n">
         <v>2</v>
       </c>
-      <c r="AF72" t="s">
-        <v>55</v>
-      </c>
+      <c r="AF72" t="s"/>
       <c r="AG72" t="s">
         <v>42</v>
       </c>
       <c r="AH72" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI72" t="s">
         <v>65</v>
@@ -7837,7 +7850,7 @@
       </c>
       <c r="E73" t="s"/>
       <c r="F73" t="n">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="G73" s="3" t="n">
         <v>2958465</v>
@@ -7846,7 +7859,7 @@
       <c r="I73" t="s"/>
       <c r="J73" t="s"/>
       <c r="K73" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L73" t="s">
         <v>65</v>
@@ -7892,7 +7905,7 @@
       </c>
       <c r="Z73" t="s"/>
       <c r="AA73" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="AB73" s="3" t="n">
         <v>1</v>
@@ -7901,19 +7914,17 @@
         <v>41</v>
       </c>
       <c r="AD73" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE73" t="n">
         <v>2</v>
       </c>
-      <c r="AF73" t="s">
-        <v>125</v>
-      </c>
+      <c r="AF73" t="s"/>
       <c r="AG73" t="s">
         <v>42</v>
       </c>
       <c r="AH73" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI73" t="s">
         <v>65</v>
@@ -7934,7 +7945,7 @@
       </c>
       <c r="E74" t="s"/>
       <c r="F74" t="n">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="G74" s="3" t="n">
         <v>2958465</v>
@@ -7943,7 +7954,7 @@
       <c r="I74" t="s"/>
       <c r="J74" t="s"/>
       <c r="K74" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L74" t="s">
         <v>65</v>
@@ -7955,7 +7966,7 @@
         <v>65</v>
       </c>
       <c r="O74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P74" t="s">
         <v>65</v>
@@ -7985,11 +7996,11 @@
         <v>0</v>
       </c>
       <c r="Y74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z74" t="s"/>
       <c r="AA74" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="AB74" s="3" t="n">
         <v>1</v>
@@ -7998,19 +8009,17 @@
         <v>41</v>
       </c>
       <c r="AD74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE74" t="n">
         <v>2</v>
       </c>
-      <c r="AF74" t="s">
-        <v>127</v>
-      </c>
+      <c r="AF74" t="s"/>
       <c r="AG74" t="s">
         <v>42</v>
       </c>
       <c r="AH74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI74" t="s">
         <v>65</v>
@@ -8031,7 +8040,7 @@
       </c>
       <c r="E75" t="s"/>
       <c r="F75" t="n">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="G75" s="3" t="n">
         <v>2958465</v>
@@ -8040,7 +8049,7 @@
       <c r="I75" t="s"/>
       <c r="J75" t="s"/>
       <c r="K75" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L75" t="s">
         <v>65</v>
@@ -8052,7 +8061,7 @@
         <v>65</v>
       </c>
       <c r="O75" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P75" t="s">
         <v>65</v>
@@ -8082,11 +8091,11 @@
         <v>0</v>
       </c>
       <c r="Y75" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Z75" t="s"/>
       <c r="AA75" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="AB75" s="3" t="n">
         <v>1</v>
@@ -8095,19 +8104,17 @@
         <v>41</v>
       </c>
       <c r="AD75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE75" t="n">
         <v>2</v>
       </c>
-      <c r="AF75" t="s">
-        <v>129</v>
-      </c>
+      <c r="AF75" t="s"/>
       <c r="AG75" t="s">
         <v>42</v>
       </c>
       <c r="AH75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI75" t="s">
         <v>65</v>
@@ -8121,14 +8128,14 @@
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D76" t="s">
         <v>37</v>
       </c>
       <c r="E76" t="s"/>
       <c r="F76" t="n">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="G76" s="3" t="n">
         <v>2958465</v>
@@ -8137,7 +8144,7 @@
       <c r="I76" t="s"/>
       <c r="J76" t="s"/>
       <c r="K76" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L76" t="s">
         <v>65</v>
@@ -8149,7 +8156,7 @@
         <v>65</v>
       </c>
       <c r="O76" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P76" t="s">
         <v>65</v>
@@ -8179,11 +8186,11 @@
         <v>0</v>
       </c>
       <c r="Y76" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Z76" t="s"/>
       <c r="AA76" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AB76" s="3" t="n">
         <v>1</v>
@@ -8192,19 +8199,17 @@
         <v>41</v>
       </c>
       <c r="AD76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE76" t="n">
         <v>2</v>
       </c>
-      <c r="AF76" t="s">
-        <v>55</v>
-      </c>
+      <c r="AF76" t="s"/>
       <c r="AG76" t="s">
         <v>42</v>
       </c>
       <c r="AH76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI76" t="s">
         <v>65</v>
@@ -8218,14 +8223,14 @@
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D77" t="s">
         <v>37</v>
       </c>
       <c r="E77" t="s"/>
       <c r="F77" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G77" s="3" t="n">
         <v>2958465</v>
@@ -8246,7 +8251,7 @@
         <v>65</v>
       </c>
       <c r="O77" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P77" t="s">
         <v>65</v>
@@ -8276,11 +8281,11 @@
         <v>0</v>
       </c>
       <c r="Y77" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Z77" t="s"/>
       <c r="AA77" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="AB77" s="3" t="n">
         <v>1</v>
@@ -8295,7 +8300,7 @@
         <v>2</v>
       </c>
       <c r="AF77" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AG77" t="s">
         <v>42</v>
@@ -8322,7 +8327,7 @@
       </c>
       <c r="E78" t="s"/>
       <c r="F78" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G78" s="3" t="n">
         <v>2958465</v>
@@ -8343,7 +8348,7 @@
         <v>65</v>
       </c>
       <c r="O78" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P78" t="s">
         <v>65</v>
@@ -8373,11 +8378,11 @@
         <v>0</v>
       </c>
       <c r="Y78" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Z78" t="s"/>
       <c r="AA78" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AB78" s="3" t="n">
         <v>1</v>
@@ -8392,7 +8397,7 @@
         <v>2</v>
       </c>
       <c r="AF78" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG78" t="s">
         <v>42</v>
@@ -8419,7 +8424,7 @@
       </c>
       <c r="E79" t="s"/>
       <c r="F79" t="n">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G79" s="3" t="n">
         <v>2958465</v>
@@ -8440,7 +8445,7 @@
         <v>65</v>
       </c>
       <c r="O79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P79" t="s">
         <v>65</v>
@@ -8470,11 +8475,11 @@
         <v>0</v>
       </c>
       <c r="Y79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Z79" t="s"/>
       <c r="AA79" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AB79" s="3" t="n">
         <v>1</v>
@@ -8489,7 +8494,7 @@
         <v>2</v>
       </c>
       <c r="AF79" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG79" t="s">
         <v>42</v>
@@ -8509,14 +8514,14 @@
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D80" t="s">
         <v>37</v>
       </c>
       <c r="E80" t="s"/>
       <c r="F80" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G80" s="3" t="n">
         <v>2958465</v>
@@ -8537,7 +8542,7 @@
         <v>65</v>
       </c>
       <c r="O80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P80" t="s">
         <v>65</v>
@@ -8567,11 +8572,11 @@
         <v>0</v>
       </c>
       <c r="Y80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z80" t="s"/>
       <c r="AA80" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="AB80" s="3" t="n">
         <v>1</v>
@@ -8586,7 +8591,7 @@
         <v>2</v>
       </c>
       <c r="AF80" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AG80" t="s">
         <v>42</v>
@@ -8606,14 +8611,14 @@
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D81" t="s">
         <v>37</v>
       </c>
       <c r="E81" t="s"/>
       <c r="F81" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G81" s="3" t="n">
         <v>2958465</v>
@@ -8668,7 +8673,7 @@
       </c>
       <c r="Z81" t="s"/>
       <c r="AA81" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="AB81" s="3" t="n">
         <v>1</v>
@@ -8683,7 +8688,7 @@
         <v>2</v>
       </c>
       <c r="AF81" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AG81" t="s">
         <v>42</v>
@@ -8710,7 +8715,7 @@
       </c>
       <c r="E82" t="s"/>
       <c r="F82" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G82" s="3" t="n">
         <v>2958465</v>
@@ -8765,7 +8770,7 @@
       </c>
       <c r="Z82" t="s"/>
       <c r="AA82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB82" s="3" t="n">
         <v>1</v>
@@ -8780,7 +8785,7 @@
         <v>2</v>
       </c>
       <c r="AF82" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG82" t="s">
         <v>42</v>
@@ -8807,7 +8812,7 @@
       </c>
       <c r="E83" t="s"/>
       <c r="F83" t="n">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G83" s="3" t="n">
         <v>2958465</v>
@@ -8862,7 +8867,7 @@
       </c>
       <c r="Z83" t="s"/>
       <c r="AA83" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB83" s="3" t="n">
         <v>1</v>
@@ -8877,7 +8882,7 @@
         <v>2</v>
       </c>
       <c r="AF83" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG83" t="s">
         <v>42</v>
@@ -8897,14 +8902,14 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D84" t="s">
         <v>37</v>
       </c>
       <c r="E84" t="s"/>
       <c r="F84" t="n">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G84" s="3" t="n">
         <v>2958465</v>
@@ -8959,7 +8964,7 @@
       </c>
       <c r="Z84" t="s"/>
       <c r="AA84" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="AB84" s="3" t="n">
         <v>1</v>
@@ -8974,7 +8979,7 @@
         <v>2</v>
       </c>
       <c r="AF84" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AG84" t="s">
         <v>42</v>
@@ -8994,14 +8999,14 @@
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D85" t="s">
         <v>37</v>
       </c>
       <c r="E85" t="s"/>
       <c r="F85" t="n">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G85" s="3" t="n">
         <v>2958465</v>
@@ -9056,7 +9061,7 @@
       </c>
       <c r="Z85" t="s"/>
       <c r="AA85" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="AB85" s="3" t="n">
         <v>1</v>
@@ -9071,7 +9076,7 @@
         <v>2</v>
       </c>
       <c r="AF85" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AG85" t="s">
         <v>42</v>
@@ -9098,7 +9103,7 @@
       </c>
       <c r="E86" t="s"/>
       <c r="F86" t="n">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G86" s="3" t="n">
         <v>2958465</v>
@@ -9153,7 +9158,7 @@
       </c>
       <c r="Z86" t="s"/>
       <c r="AA86" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AB86" s="3" t="n">
         <v>1</v>
@@ -9168,7 +9173,7 @@
         <v>2</v>
       </c>
       <c r="AF86" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG86" t="s">
         <v>42</v>
@@ -9195,7 +9200,7 @@
       </c>
       <c r="E87" t="s"/>
       <c r="F87" t="n">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G87" s="3" t="n">
         <v>2958465</v>
@@ -9250,7 +9255,7 @@
       </c>
       <c r="Z87" t="s"/>
       <c r="AA87" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AB87" s="3" t="n">
         <v>1</v>
@@ -9265,7 +9270,7 @@
         <v>2</v>
       </c>
       <c r="AF87" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG87" t="s">
         <v>42</v>
@@ -9285,14 +9290,14 @@
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D88" t="s">
         <v>37</v>
       </c>
       <c r="E88" t="s"/>
       <c r="F88" t="n">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G88" s="3" t="n">
         <v>2958465</v>
@@ -9347,7 +9352,7 @@
       </c>
       <c r="Z88" t="s"/>
       <c r="AA88" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="AB88" s="3" t="n">
         <v>1</v>
@@ -9362,7 +9367,7 @@
         <v>2</v>
       </c>
       <c r="AF88" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AG88" t="s">
         <v>42</v>
@@ -9382,14 +9387,14 @@
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D89" t="s">
         <v>37</v>
       </c>
       <c r="E89" t="s"/>
       <c r="F89" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G89" s="3" t="n">
         <v>2958465</v>
@@ -9444,7 +9449,7 @@
       </c>
       <c r="Z89" t="s"/>
       <c r="AA89" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="AB89" s="3" t="n">
         <v>1</v>
@@ -9459,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="AF89" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AG89" t="s">
         <v>42</v>
@@ -9486,7 +9491,7 @@
       </c>
       <c r="E90" t="s"/>
       <c r="F90" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G90" s="3" t="n">
         <v>2958465</v>
@@ -9541,7 +9546,7 @@
       </c>
       <c r="Z90" t="s"/>
       <c r="AA90" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AB90" s="3" t="n">
         <v>1</v>
@@ -9556,7 +9561,7 @@
         <v>2</v>
       </c>
       <c r="AF90" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG90" t="s">
         <v>42</v>
@@ -9583,7 +9588,7 @@
       </c>
       <c r="E91" t="s"/>
       <c r="F91" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G91" s="3" t="n">
         <v>2958465</v>
@@ -9638,7 +9643,7 @@
       </c>
       <c r="Z91" t="s"/>
       <c r="AA91" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AB91" s="3" t="n">
         <v>1</v>
@@ -9653,7 +9658,7 @@
         <v>2</v>
       </c>
       <c r="AF91" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG91" t="s">
         <v>42</v>
@@ -9673,14 +9678,14 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D92" t="s">
         <v>37</v>
       </c>
       <c r="E92" t="s"/>
       <c r="F92" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G92" s="3" t="n">
         <v>2958465</v>
@@ -9735,7 +9740,7 @@
       </c>
       <c r="Z92" t="s"/>
       <c r="AA92" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="AB92" s="3" t="n">
         <v>1</v>
@@ -9750,7 +9755,7 @@
         <v>2</v>
       </c>
       <c r="AF92" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AG92" t="s">
         <v>42</v>
@@ -9770,14 +9775,14 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D93" t="s">
         <v>37</v>
       </c>
       <c r="E93" t="s"/>
       <c r="F93" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G93" s="3" t="n">
         <v>2958465</v>
@@ -9832,7 +9837,7 @@
       </c>
       <c r="Z93" t="s"/>
       <c r="AA93" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="AB93" s="3" t="n">
         <v>1</v>
@@ -9847,7 +9852,7 @@
         <v>2</v>
       </c>
       <c r="AF93" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AG93" t="s">
         <v>42</v>
@@ -9874,7 +9879,7 @@
       </c>
       <c r="E94" t="s"/>
       <c r="F94" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G94" s="3" t="n">
         <v>2958465</v>
@@ -9929,7 +9934,7 @@
       </c>
       <c r="Z94" t="s"/>
       <c r="AA94" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AB94" s="3" t="n">
         <v>1</v>
@@ -9944,7 +9949,7 @@
         <v>2</v>
       </c>
       <c r="AF94" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG94" t="s">
         <v>42</v>
@@ -9971,7 +9976,7 @@
       </c>
       <c r="E95" t="s"/>
       <c r="F95" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G95" s="3" t="n">
         <v>2958465</v>
@@ -10026,7 +10031,7 @@
       </c>
       <c r="Z95" t="s"/>
       <c r="AA95" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AB95" s="3" t="n">
         <v>1</v>
@@ -10041,7 +10046,7 @@
         <v>2</v>
       </c>
       <c r="AF95" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG95" t="s">
         <v>42</v>
@@ -10061,14 +10066,14 @@
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D96" t="s">
         <v>37</v>
       </c>
       <c r="E96" t="s"/>
       <c r="F96" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G96" s="3" t="n">
         <v>2958465</v>
@@ -10123,7 +10128,7 @@
       </c>
       <c r="Z96" t="s"/>
       <c r="AA96" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="AB96" s="3" t="n">
         <v>1</v>
@@ -10138,7 +10143,7 @@
         <v>2</v>
       </c>
       <c r="AF96" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AG96" t="s">
         <v>42</v>
@@ -10158,14 +10163,14 @@
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D97" t="s">
         <v>37</v>
       </c>
       <c r="E97" t="s"/>
       <c r="F97" t="n">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G97" s="3" t="n">
         <v>2958465</v>
@@ -10220,7 +10225,7 @@
       </c>
       <c r="Z97" t="s"/>
       <c r="AA97" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="AB97" s="3" t="n">
         <v>1</v>
@@ -10235,7 +10240,7 @@
         <v>2</v>
       </c>
       <c r="AF97" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AG97" t="s">
         <v>42</v>
@@ -10262,7 +10267,7 @@
       </c>
       <c r="E98" t="s"/>
       <c r="F98" t="n">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G98" s="3" t="n">
         <v>2958465</v>
@@ -10317,7 +10322,7 @@
       </c>
       <c r="Z98" t="s"/>
       <c r="AA98" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AB98" s="3" t="n">
         <v>1</v>
@@ -10332,7 +10337,7 @@
         <v>2</v>
       </c>
       <c r="AF98" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG98" t="s">
         <v>42</v>
@@ -10359,7 +10364,7 @@
       </c>
       <c r="E99" t="s"/>
       <c r="F99" t="n">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G99" s="3" t="n">
         <v>2958465</v>
@@ -10414,7 +10419,7 @@
       </c>
       <c r="Z99" t="s"/>
       <c r="AA99" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AB99" s="3" t="n">
         <v>1</v>
@@ -10429,7 +10434,7 @@
         <v>2</v>
       </c>
       <c r="AF99" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG99" t="s">
         <v>42</v>
@@ -10449,14 +10454,14 @@
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D100" t="s">
         <v>37</v>
       </c>
       <c r="E100" t="s"/>
       <c r="F100" t="n">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G100" s="3" t="n">
         <v>2958465</v>
@@ -10511,7 +10516,7 @@
       </c>
       <c r="Z100" t="s"/>
       <c r="AA100" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="AB100" s="3" t="n">
         <v>1</v>
@@ -10526,7 +10531,7 @@
         <v>2</v>
       </c>
       <c r="AF100" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AG100" t="s">
         <v>42</v>
@@ -10546,14 +10551,14 @@
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D101" t="s">
         <v>37</v>
       </c>
       <c r="E101" t="s"/>
       <c r="F101" t="n">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G101" s="3" t="n">
         <v>2958465</v>
@@ -10608,7 +10613,7 @@
       </c>
       <c r="Z101" t="s"/>
       <c r="AA101" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="AB101" s="3" t="n">
         <v>1</v>
@@ -10623,7 +10628,7 @@
         <v>2</v>
       </c>
       <c r="AF101" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AG101" t="s">
         <v>42</v>
@@ -10650,7 +10655,7 @@
       </c>
       <c r="E102" t="s"/>
       <c r="F102" t="n">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G102" s="3" t="n">
         <v>2958465</v>
@@ -10705,7 +10710,7 @@
       </c>
       <c r="Z102" t="s"/>
       <c r="AA102" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AB102" s="3" t="n">
         <v>1</v>
@@ -10720,7 +10725,7 @@
         <v>2</v>
       </c>
       <c r="AF102" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG102" t="s">
         <v>42</v>
@@ -10747,7 +10752,7 @@
       </c>
       <c r="E103" t="s"/>
       <c r="F103" t="n">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G103" s="3" t="n">
         <v>2958465</v>
@@ -10802,7 +10807,7 @@
       </c>
       <c r="Z103" t="s"/>
       <c r="AA103" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AB103" s="3" t="n">
         <v>1</v>
@@ -10817,7 +10822,7 @@
         <v>2</v>
       </c>
       <c r="AF103" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG103" t="s">
         <v>42</v>
@@ -10837,14 +10842,14 @@
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D104" t="s">
         <v>37</v>
       </c>
       <c r="E104" t="s"/>
       <c r="F104" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G104" s="3" t="n">
         <v>2958465</v>
@@ -10899,7 +10904,7 @@
       </c>
       <c r="Z104" t="s"/>
       <c r="AA104" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="AB104" s="3" t="n">
         <v>1</v>
@@ -10914,7 +10919,7 @@
         <v>2</v>
       </c>
       <c r="AF104" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AG104" t="s">
         <v>42</v>
@@ -10934,14 +10939,14 @@
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D105" t="s">
         <v>37</v>
       </c>
       <c r="E105" t="s"/>
       <c r="F105" t="n">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G105" s="3" t="n">
         <v>2958465</v>
@@ -10996,7 +11001,7 @@
       </c>
       <c r="Z105" t="s"/>
       <c r="AA105" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="AB105" s="3" t="n">
         <v>1</v>
@@ -11011,7 +11016,7 @@
         <v>2</v>
       </c>
       <c r="AF105" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AG105" t="s">
         <v>42</v>
@@ -11038,7 +11043,7 @@
       </c>
       <c r="E106" t="s"/>
       <c r="F106" t="n">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G106" s="3" t="n">
         <v>2958465</v>
@@ -11093,7 +11098,7 @@
       </c>
       <c r="Z106" t="s"/>
       <c r="AA106" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AB106" s="3" t="n">
         <v>1</v>
@@ -11108,7 +11113,7 @@
         <v>2</v>
       </c>
       <c r="AF106" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG106" t="s">
         <v>42</v>
@@ -11135,7 +11140,7 @@
       </c>
       <c r="E107" t="s"/>
       <c r="F107" t="n">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G107" s="3" t="n">
         <v>2958465</v>
@@ -11190,7 +11195,7 @@
       </c>
       <c r="Z107" t="s"/>
       <c r="AA107" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AB107" s="3" t="n">
         <v>1</v>
@@ -11205,7 +11210,7 @@
         <v>2</v>
       </c>
       <c r="AF107" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG107" t="s">
         <v>42</v>
@@ -11225,14 +11230,14 @@
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D108" t="s">
         <v>37</v>
       </c>
       <c r="E108" t="s"/>
       <c r="F108" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G108" s="3" t="n">
         <v>2958465</v>
@@ -11287,7 +11292,7 @@
       </c>
       <c r="Z108" t="s"/>
       <c r="AA108" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="AB108" s="3" t="n">
         <v>1</v>
@@ -11302,7 +11307,7 @@
         <v>2</v>
       </c>
       <c r="AF108" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AG108" t="s">
         <v>42</v>
@@ -11322,14 +11327,14 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D109" t="s">
         <v>37</v>
       </c>
       <c r="E109" t="s"/>
       <c r="F109" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G109" s="3" t="n">
         <v>2958465</v>
@@ -11384,7 +11389,7 @@
       </c>
       <c r="Z109" t="s"/>
       <c r="AA109" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="AB109" s="3" t="n">
         <v>1</v>
@@ -11399,7 +11404,7 @@
         <v>2</v>
       </c>
       <c r="AF109" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AG109" t="s">
         <v>42</v>
@@ -11426,7 +11431,7 @@
       </c>
       <c r="E110" t="s"/>
       <c r="F110" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G110" s="3" t="n">
         <v>2958465</v>
@@ -11481,7 +11486,7 @@
       </c>
       <c r="Z110" t="s"/>
       <c r="AA110" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AB110" s="3" t="n">
         <v>1</v>
@@ -11496,7 +11501,7 @@
         <v>2</v>
       </c>
       <c r="AF110" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG110" t="s">
         <v>42</v>
@@ -11523,7 +11528,7 @@
       </c>
       <c r="E111" t="s"/>
       <c r="F111" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G111" s="3" t="n">
         <v>2958465</v>
@@ -11578,7 +11583,7 @@
       </c>
       <c r="Z111" t="s"/>
       <c r="AA111" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AB111" s="3" t="n">
         <v>1</v>
@@ -11593,7 +11598,7 @@
         <v>2</v>
       </c>
       <c r="AF111" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG111" t="s">
         <v>42</v>
@@ -11613,14 +11618,14 @@
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D112" t="s">
         <v>37</v>
       </c>
       <c r="E112" t="s"/>
       <c r="F112" t="n">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G112" s="3" t="n">
         <v>2958465</v>
@@ -11675,7 +11680,7 @@
       </c>
       <c r="Z112" t="s"/>
       <c r="AA112" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="AB112" s="3" t="n">
         <v>1</v>
@@ -11690,7 +11695,7 @@
         <v>2</v>
       </c>
       <c r="AF112" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AG112" t="s">
         <v>42</v>
@@ -11710,14 +11715,14 @@
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D113" t="s">
         <v>37</v>
       </c>
       <c r="E113" t="s"/>
       <c r="F113" t="n">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G113" s="3" t="n">
         <v>2958465</v>
@@ -11772,7 +11777,7 @@
       </c>
       <c r="Z113" t="s"/>
       <c r="AA113" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="AB113" s="3" t="n">
         <v>1</v>
@@ -11787,7 +11792,7 @@
         <v>2</v>
       </c>
       <c r="AF113" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AG113" t="s">
         <v>42</v>
@@ -11814,7 +11819,7 @@
       </c>
       <c r="E114" t="s"/>
       <c r="F114" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G114" s="3" t="n">
         <v>2958465</v>
@@ -11869,7 +11874,7 @@
       </c>
       <c r="Z114" t="s"/>
       <c r="AA114" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB114" s="3" t="n">
         <v>1</v>
@@ -11884,7 +11889,7 @@
         <v>2</v>
       </c>
       <c r="AF114" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG114" t="s">
         <v>42</v>
@@ -11911,7 +11916,7 @@
       </c>
       <c r="E115" t="s"/>
       <c r="F115" t="n">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G115" s="3" t="n">
         <v>2958465</v>
@@ -11966,7 +11971,7 @@
       </c>
       <c r="Z115" t="s"/>
       <c r="AA115" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB115" s="3" t="n">
         <v>1</v>
@@ -11981,7 +11986,7 @@
         <v>2</v>
       </c>
       <c r="AF115" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG115" t="s">
         <v>42</v>
@@ -12001,14 +12006,14 @@
         <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D116" t="s">
         <v>37</v>
       </c>
       <c r="E116" t="s"/>
       <c r="F116" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G116" s="3" t="n">
         <v>2958465</v>
@@ -12063,7 +12068,7 @@
       </c>
       <c r="Z116" t="s"/>
       <c r="AA116" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="AB116" s="3" t="n">
         <v>1</v>
@@ -12078,7 +12083,7 @@
         <v>2</v>
       </c>
       <c r="AF116" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AG116" t="s">
         <v>42</v>
@@ -12098,14 +12103,14 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D117" t="s">
         <v>37</v>
       </c>
       <c r="E117" t="s"/>
       <c r="F117" t="n">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G117" s="3" t="n">
         <v>2958465</v>
@@ -12160,7 +12165,7 @@
       </c>
       <c r="Z117" t="s"/>
       <c r="AA117" t="s">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="AB117" s="3" t="n">
         <v>1</v>
@@ -12175,7 +12180,7 @@
         <v>2</v>
       </c>
       <c r="AF117" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AG117" t="s">
         <v>42</v>
@@ -12202,7 +12207,7 @@
       </c>
       <c r="E118" t="s"/>
       <c r="F118" t="n">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G118" s="3" t="n">
         <v>2958465</v>
@@ -12257,7 +12262,7 @@
       </c>
       <c r="Z118" t="s"/>
       <c r="AA118" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AB118" s="3" t="n">
         <v>1</v>
@@ -12272,7 +12277,7 @@
         <v>2</v>
       </c>
       <c r="AF118" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG118" t="s">
         <v>42</v>
@@ -12299,7 +12304,7 @@
       </c>
       <c r="E119" t="s"/>
       <c r="F119" t="n">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G119" s="3" t="n">
         <v>2958465</v>
@@ -12354,7 +12359,7 @@
       </c>
       <c r="Z119" t="s"/>
       <c r="AA119" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AB119" s="3" t="n">
         <v>1</v>
@@ -12369,7 +12374,7 @@
         <v>2</v>
       </c>
       <c r="AF119" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG119" t="s">
         <v>42</v>
@@ -12389,14 +12394,14 @@
         <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D120" t="s">
         <v>37</v>
       </c>
       <c r="E120" t="s"/>
       <c r="F120" t="n">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G120" s="3" t="n">
         <v>2958465</v>
@@ -12451,7 +12456,7 @@
       </c>
       <c r="Z120" t="s"/>
       <c r="AA120" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="AB120" s="3" t="n">
         <v>1</v>
@@ -12466,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AF120" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AG120" t="s">
         <v>42</v>
@@ -12486,14 +12491,14 @@
         <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D121" t="s">
         <v>37</v>
       </c>
       <c r="E121" t="s"/>
       <c r="F121" t="n">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G121" s="3" t="n">
         <v>2958465</v>
@@ -12548,7 +12553,7 @@
       </c>
       <c r="Z121" t="s"/>
       <c r="AA121" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="AB121" s="3" t="n">
         <v>1</v>
@@ -12563,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="AF121" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AG121" t="s">
         <v>42</v>
@@ -12590,7 +12595,7 @@
       </c>
       <c r="E122" t="s"/>
       <c r="F122" t="n">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G122" s="3" t="n">
         <v>2958465</v>
@@ -12645,7 +12650,7 @@
       </c>
       <c r="Z122" t="s"/>
       <c r="AA122" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AB122" s="3" t="n">
         <v>1</v>
@@ -12660,7 +12665,7 @@
         <v>2</v>
       </c>
       <c r="AF122" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG122" t="s">
         <v>42</v>
@@ -12687,7 +12692,7 @@
       </c>
       <c r="E123" t="s"/>
       <c r="F123" t="n">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G123" s="3" t="n">
         <v>2958465</v>
@@ -12742,7 +12747,7 @@
       </c>
       <c r="Z123" t="s"/>
       <c r="AA123" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AB123" s="3" t="n">
         <v>1</v>
@@ -12757,7 +12762,7 @@
         <v>2</v>
       </c>
       <c r="AF123" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG123" t="s">
         <v>42</v>
@@ -12777,14 +12782,14 @@
         <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D124" t="s">
         <v>37</v>
       </c>
       <c r="E124" t="s"/>
       <c r="F124" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G124" s="3" t="n">
         <v>2958465</v>
@@ -12839,7 +12844,7 @@
       </c>
       <c r="Z124" t="s"/>
       <c r="AA124" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="AB124" s="3" t="n">
         <v>1</v>
@@ -12854,7 +12859,7 @@
         <v>2</v>
       </c>
       <c r="AF124" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AG124" t="s">
         <v>42</v>
@@ -12874,14 +12879,14 @@
         <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D125" t="s">
         <v>37</v>
       </c>
       <c r="E125" t="s"/>
       <c r="F125" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G125" s="3" t="n">
         <v>2958465</v>
@@ -12936,7 +12941,7 @@
       </c>
       <c r="Z125" t="s"/>
       <c r="AA125" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="AB125" s="3" t="n">
         <v>1</v>
@@ -12951,7 +12956,7 @@
         <v>2</v>
       </c>
       <c r="AF125" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AG125" t="s">
         <v>42</v>
@@ -12978,7 +12983,7 @@
       </c>
       <c r="E126" t="s"/>
       <c r="F126" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G126" s="3" t="n">
         <v>2958465</v>
@@ -13033,7 +13038,7 @@
       </c>
       <c r="Z126" t="s"/>
       <c r="AA126" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AB126" s="3" t="n">
         <v>1</v>
@@ -13048,7 +13053,7 @@
         <v>2</v>
       </c>
       <c r="AF126" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG126" t="s">
         <v>42</v>
@@ -13075,7 +13080,7 @@
       </c>
       <c r="E127" t="s"/>
       <c r="F127" t="n">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G127" s="3" t="n">
         <v>2958465</v>
@@ -13130,7 +13135,7 @@
       </c>
       <c r="Z127" t="s"/>
       <c r="AA127" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AB127" s="3" t="n">
         <v>1</v>
@@ -13145,7 +13150,7 @@
         <v>2</v>
       </c>
       <c r="AF127" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG127" t="s">
         <v>42</v>
@@ -13165,14 +13170,14 @@
         <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D128" t="s">
         <v>37</v>
       </c>
       <c r="E128" t="s"/>
       <c r="F128" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G128" s="3" t="n">
         <v>2958465</v>
@@ -13227,7 +13232,7 @@
       </c>
       <c r="Z128" t="s"/>
       <c r="AA128" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="AB128" s="3" t="n">
         <v>1</v>
@@ -13242,7 +13247,7 @@
         <v>2</v>
       </c>
       <c r="AF128" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AG128" t="s">
         <v>42</v>
@@ -13262,14 +13267,14 @@
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D129" t="s">
         <v>37</v>
       </c>
       <c r="E129" t="s"/>
       <c r="F129" t="n">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G129" s="3" t="n">
         <v>2958465</v>
@@ -13324,7 +13329,7 @@
       </c>
       <c r="Z129" t="s"/>
       <c r="AA129" t="s">
-        <v>182</v>
+        <v>54</v>
       </c>
       <c r="AB129" s="3" t="n">
         <v>1</v>
@@ -13339,7 +13344,7 @@
         <v>2</v>
       </c>
       <c r="AF129" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AG129" t="s">
         <v>42</v>
@@ -13366,7 +13371,7 @@
       </c>
       <c r="E130" t="s"/>
       <c r="F130" t="n">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G130" s="3" t="n">
         <v>2958465</v>
@@ -13421,7 +13426,7 @@
       </c>
       <c r="Z130" t="s"/>
       <c r="AA130" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AB130" s="3" t="n">
         <v>1</v>
@@ -13436,7 +13441,7 @@
         <v>2</v>
       </c>
       <c r="AF130" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG130" t="s">
         <v>42</v>
@@ -13463,7 +13468,7 @@
       </c>
       <c r="E131" t="s"/>
       <c r="F131" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G131" s="3" t="n">
         <v>2958465</v>
@@ -13518,7 +13523,7 @@
       </c>
       <c r="Z131" t="s"/>
       <c r="AA131" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AB131" s="3" t="n">
         <v>1</v>
@@ -13533,7 +13538,7 @@
         <v>2</v>
       </c>
       <c r="AF131" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG131" t="s">
         <v>42</v>
@@ -13553,14 +13558,14 @@
         <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D132" t="s">
         <v>37</v>
       </c>
       <c r="E132" t="s"/>
       <c r="F132" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G132" s="3" t="n">
         <v>2958465</v>
@@ -13615,7 +13620,7 @@
       </c>
       <c r="Z132" t="s"/>
       <c r="AA132" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="AB132" s="3" t="n">
         <v>1</v>
@@ -13630,7 +13635,7 @@
         <v>2</v>
       </c>
       <c r="AF132" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AG132" t="s">
         <v>42</v>
@@ -13650,14 +13655,14 @@
         <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D133" t="s">
         <v>37</v>
       </c>
       <c r="E133" t="s"/>
       <c r="F133" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G133" s="3" t="n">
         <v>2958465</v>
@@ -13712,7 +13717,7 @@
       </c>
       <c r="Z133" t="s"/>
       <c r="AA133" t="s">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="AB133" s="3" t="n">
         <v>1</v>
@@ -13727,7 +13732,7 @@
         <v>2</v>
       </c>
       <c r="AF133" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AG133" t="s">
         <v>42</v>
@@ -13754,7 +13759,7 @@
       </c>
       <c r="E134" t="s"/>
       <c r="F134" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G134" s="3" t="n">
         <v>2958465</v>
@@ -13809,7 +13814,7 @@
       </c>
       <c r="Z134" t="s"/>
       <c r="AA134" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AB134" s="3" t="n">
         <v>1</v>
@@ -13824,7 +13829,7 @@
         <v>2</v>
       </c>
       <c r="AF134" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG134" t="s">
         <v>42</v>
@@ -13851,7 +13856,7 @@
       </c>
       <c r="E135" t="s"/>
       <c r="F135" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G135" s="3" t="n">
         <v>2958465</v>
@@ -13906,7 +13911,7 @@
       </c>
       <c r="Z135" t="s"/>
       <c r="AA135" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AB135" s="3" t="n">
         <v>1</v>
@@ -13921,7 +13926,7 @@
         <v>2</v>
       </c>
       <c r="AF135" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG135" t="s">
         <v>42</v>
@@ -13941,14 +13946,14 @@
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D136" t="s">
         <v>37</v>
       </c>
       <c r="E136" t="s"/>
       <c r="F136" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G136" s="3" t="n">
         <v>2958465</v>
@@ -14003,7 +14008,7 @@
       </c>
       <c r="Z136" t="s"/>
       <c r="AA136" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="AB136" s="3" t="n">
         <v>1</v>
@@ -14018,7 +14023,7 @@
         <v>2</v>
       </c>
       <c r="AF136" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AG136" t="s">
         <v>42</v>
@@ -14038,14 +14043,14 @@
         <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D137" t="s">
         <v>37</v>
       </c>
       <c r="E137" t="s"/>
       <c r="F137" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G137" s="3" t="n">
         <v>2958465</v>
@@ -14100,7 +14105,7 @@
       </c>
       <c r="Z137" t="s"/>
       <c r="AA137" t="s">
-        <v>190</v>
+        <v>54</v>
       </c>
       <c r="AB137" s="3" t="n">
         <v>1</v>
@@ -14115,7 +14120,7 @@
         <v>2</v>
       </c>
       <c r="AF137" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="AG137" t="s">
         <v>42</v>
@@ -14142,7 +14147,7 @@
       </c>
       <c r="E138" t="s"/>
       <c r="F138" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G138" s="3" t="n">
         <v>2958465</v>
@@ -14197,7 +14202,7 @@
       </c>
       <c r="Z138" t="s"/>
       <c r="AA138" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AB138" s="3" t="n">
         <v>1</v>
@@ -14212,7 +14217,7 @@
         <v>2</v>
       </c>
       <c r="AF138" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG138" t="s">
         <v>42</v>
@@ -14239,7 +14244,7 @@
       </c>
       <c r="E139" t="s"/>
       <c r="F139" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G139" s="3" t="n">
         <v>2958465</v>
@@ -14294,7 +14299,7 @@
       </c>
       <c r="Z139" t="s"/>
       <c r="AA139" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AB139" s="3" t="n">
         <v>1</v>
@@ -14309,7 +14314,7 @@
         <v>2</v>
       </c>
       <c r="AF139" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG139" t="s">
         <v>42</v>
@@ -14318,6 +14323,491 @@
         <v>65</v>
       </c>
       <c r="AI139" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140" spans="1:35">
+      <c r="A140" t="s">
+        <v>35</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>64</v>
+      </c>
+      <c r="D140" t="s">
+        <v>37</v>
+      </c>
+      <c r="E140" t="s"/>
+      <c r="F140" t="n">
+        <v>264</v>
+      </c>
+      <c r="G140" s="3" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s"/>
+      <c r="K140" t="s">
+        <v>53</v>
+      </c>
+      <c r="L140" t="s">
+        <v>65</v>
+      </c>
+      <c r="M140" t="s">
+        <v>65</v>
+      </c>
+      <c r="N140" t="s">
+        <v>65</v>
+      </c>
+      <c r="O140" t="s">
+        <v>194</v>
+      </c>
+      <c r="P140" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>65</v>
+      </c>
+      <c r="R140" t="s">
+        <v>67</v>
+      </c>
+      <c r="S140" t="s">
+        <v>65</v>
+      </c>
+      <c r="T140" t="s">
+        <v>65</v>
+      </c>
+      <c r="U140" t="s">
+        <v>65</v>
+      </c>
+      <c r="V140" t="n">
+        <v>0</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z140" t="s"/>
+      <c r="AA140" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB140" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC140" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD140" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF140" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG140" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH140" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI140" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="141" spans="1:35">
+      <c r="A141" t="s">
+        <v>35</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" t="s"/>
+      <c r="F141" t="n">
+        <v>265</v>
+      </c>
+      <c r="G141" s="3" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s"/>
+      <c r="K141" t="s">
+        <v>53</v>
+      </c>
+      <c r="L141" t="s">
+        <v>65</v>
+      </c>
+      <c r="M141" t="s">
+        <v>65</v>
+      </c>
+      <c r="N141" t="s">
+        <v>65</v>
+      </c>
+      <c r="O141" t="s">
+        <v>195</v>
+      </c>
+      <c r="P141" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>65</v>
+      </c>
+      <c r="R141" t="s">
+        <v>67</v>
+      </c>
+      <c r="S141" t="s">
+        <v>65</v>
+      </c>
+      <c r="T141" t="s">
+        <v>65</v>
+      </c>
+      <c r="U141" t="s">
+        <v>65</v>
+      </c>
+      <c r="V141" t="n">
+        <v>0</v>
+      </c>
+      <c r="W141" t="n">
+        <v>0</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y141" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z141" t="s"/>
+      <c r="AA141" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB141" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC141" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD141" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF141" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG141" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH141" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI141" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="142" spans="1:35">
+      <c r="A142" t="s">
+        <v>35</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>64</v>
+      </c>
+      <c r="D142" t="s">
+        <v>37</v>
+      </c>
+      <c r="E142" t="s"/>
+      <c r="F142" t="n">
+        <v>266</v>
+      </c>
+      <c r="G142" s="3" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s"/>
+      <c r="K142" t="s">
+        <v>53</v>
+      </c>
+      <c r="L142" t="s">
+        <v>65</v>
+      </c>
+      <c r="M142" t="s">
+        <v>65</v>
+      </c>
+      <c r="N142" t="s">
+        <v>65</v>
+      </c>
+      <c r="O142" t="s">
+        <v>196</v>
+      </c>
+      <c r="P142" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>65</v>
+      </c>
+      <c r="R142" t="s">
+        <v>67</v>
+      </c>
+      <c r="S142" t="s">
+        <v>65</v>
+      </c>
+      <c r="T142" t="s">
+        <v>65</v>
+      </c>
+      <c r="U142" t="s">
+        <v>65</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z142" t="s"/>
+      <c r="AA142" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB142" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC142" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD142" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF142" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG142" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH142" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI142" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:35">
+      <c r="A143" t="s">
+        <v>35</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>64</v>
+      </c>
+      <c r="D143" t="s">
+        <v>37</v>
+      </c>
+      <c r="E143" t="s"/>
+      <c r="F143" t="n">
+        <v>267</v>
+      </c>
+      <c r="G143" s="3" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s"/>
+      <c r="K143" t="s">
+        <v>53</v>
+      </c>
+      <c r="L143" t="s">
+        <v>65</v>
+      </c>
+      <c r="M143" t="s">
+        <v>65</v>
+      </c>
+      <c r="N143" t="s">
+        <v>65</v>
+      </c>
+      <c r="O143" t="s">
+        <v>197</v>
+      </c>
+      <c r="P143" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>65</v>
+      </c>
+      <c r="R143" t="s">
+        <v>67</v>
+      </c>
+      <c r="S143" t="s">
+        <v>65</v>
+      </c>
+      <c r="T143" t="s">
+        <v>65</v>
+      </c>
+      <c r="U143" t="s">
+        <v>65</v>
+      </c>
+      <c r="V143" t="n">
+        <v>0</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z143" t="s"/>
+      <c r="AA143" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB143" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD143" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF143" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG143" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH143" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI143" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:35">
+      <c r="A144" t="s">
+        <v>35</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>64</v>
+      </c>
+      <c r="D144" t="s">
+        <v>37</v>
+      </c>
+      <c r="E144" t="s"/>
+      <c r="F144" t="n">
+        <v>268</v>
+      </c>
+      <c r="G144" s="3" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s"/>
+      <c r="K144" t="s">
+        <v>53</v>
+      </c>
+      <c r="L144" t="s">
+        <v>65</v>
+      </c>
+      <c r="M144" t="s">
+        <v>65</v>
+      </c>
+      <c r="N144" t="s">
+        <v>65</v>
+      </c>
+      <c r="O144" t="s">
+        <v>198</v>
+      </c>
+      <c r="P144" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>65</v>
+      </c>
+      <c r="R144" t="s">
+        <v>67</v>
+      </c>
+      <c r="S144" t="s">
+        <v>65</v>
+      </c>
+      <c r="T144" t="s">
+        <v>65</v>
+      </c>
+      <c r="U144" t="s">
+        <v>65</v>
+      </c>
+      <c r="V144" t="n">
+        <v>0</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z144" t="s"/>
+      <c r="AA144" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB144" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC144" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD144" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF144" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG144" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH144" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI144" t="s">
         <v>65</v>
       </c>
     </row>
